--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.06592966666667</v>
+        <v>17.16209533333333</v>
       </c>
       <c r="H2">
-        <v>99.197789</v>
+        <v>51.486286</v>
       </c>
       <c r="I2">
-        <v>0.4620579289161133</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="J2">
-        <v>0.4620579289161132</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>428.6141356666667</v>
+        <v>0.08160666666666666</v>
       </c>
       <c r="N2">
-        <v>1285.842407</v>
+        <v>0.24482</v>
       </c>
       <c r="O2">
-        <v>0.9996091935262359</v>
+        <v>0.471786649605624</v>
       </c>
       <c r="P2">
-        <v>0.999609193526236</v>
+        <v>0.471786649605624</v>
       </c>
       <c r="Q2">
-        <v>14172.52486409313</v>
+        <v>1.400541393168889</v>
       </c>
       <c r="R2">
-        <v>127552.7237768381</v>
+        <v>12.60487253852</v>
       </c>
       <c r="S2">
-        <v>0.4618773536862388</v>
+        <v>0.1160581314535203</v>
       </c>
       <c r="T2">
-        <v>0.4618773536862388</v>
+        <v>0.1160581314535203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.06592966666667</v>
+        <v>17.16209533333333</v>
       </c>
       <c r="H3">
-        <v>99.197789</v>
+        <v>51.486286</v>
       </c>
       <c r="I3">
-        <v>0.4620579289161133</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="J3">
-        <v>0.4620579289161132</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09136700000000002</v>
+        <v>0.09136699999999999</v>
       </c>
       <c r="N3">
         <v>0.274101</v>
       </c>
       <c r="O3">
-        <v>0.0002130851168565751</v>
+        <v>0.528213350394376</v>
       </c>
       <c r="P3">
-        <v>0.0002130851168565751</v>
+        <v>0.528213350394376</v>
       </c>
       <c r="Q3">
-        <v>3.021134795854334</v>
+        <v>1.568049164320666</v>
       </c>
       <c r="R3">
-        <v>27.19021316268901</v>
+        <v>14.112442478886</v>
       </c>
       <c r="S3">
-        <v>9.845766777759709E-05</v>
+        <v>0.1299389342763719</v>
       </c>
       <c r="T3">
-        <v>9.845766777759706E-05</v>
+        <v>0.1299389342763719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.06592966666667</v>
+        <v>14.69090766666667</v>
       </c>
       <c r="H4">
-        <v>99.197789</v>
+        <v>44.072723</v>
       </c>
       <c r="I4">
-        <v>0.4620579289161133</v>
+        <v>0.2105756965403629</v>
       </c>
       <c r="J4">
-        <v>0.4620579289161132</v>
+        <v>0.2105756965403628</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07620366666666667</v>
+        <v>0.08160666666666666</v>
       </c>
       <c r="N4">
-        <v>0.228611</v>
+        <v>0.24482</v>
       </c>
       <c r="O4">
-        <v>0.0001777213569074848</v>
+        <v>0.471786649605624</v>
       </c>
       <c r="P4">
-        <v>0.0001777213569074848</v>
+        <v>0.471786649605624</v>
       </c>
       <c r="Q4">
-        <v>2.519745082342111</v>
+        <v>1.198876004984444</v>
       </c>
       <c r="R4">
-        <v>22.677705741079</v>
+        <v>10.78988404486</v>
       </c>
       <c r="S4">
-        <v>8.21175620968338E-05</v>
+        <v>0.09934680235914839</v>
       </c>
       <c r="T4">
-        <v>8.211756209683379E-05</v>
+        <v>0.09934680235914836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>44.072723</v>
       </c>
       <c r="I5">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403629</v>
       </c>
       <c r="J5">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403628</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>428.6141356666667</v>
+        <v>0.09136699999999999</v>
       </c>
       <c r="N5">
-        <v>1285.842407</v>
+        <v>0.274101</v>
       </c>
       <c r="O5">
-        <v>0.9996091935262359</v>
+        <v>0.528213350394376</v>
       </c>
       <c r="P5">
-        <v>0.999609193526236</v>
+        <v>0.528213350394376</v>
       </c>
       <c r="Q5">
-        <v>6296.730691707141</v>
+        <v>1.342264160780333</v>
       </c>
       <c r="R5">
-        <v>56670.57622536427</v>
+        <v>12.080377447023</v>
       </c>
       <c r="S5">
-        <v>0.2052081288725763</v>
+        <v>0.1112288941812145</v>
       </c>
       <c r="T5">
-        <v>0.2052081288725763</v>
+        <v>0.1112288941812145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.69090766666667</v>
+        <v>37.91244433333333</v>
       </c>
       <c r="H6">
-        <v>44.072723</v>
+        <v>113.737333</v>
       </c>
       <c r="I6">
-        <v>0.2052883568914379</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="J6">
-        <v>0.2052883568914379</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09136700000000002</v>
+        <v>0.08160666666666666</v>
       </c>
       <c r="N6">
-        <v>0.274101</v>
+        <v>0.24482</v>
       </c>
       <c r="O6">
-        <v>0.0002130851168565751</v>
+        <v>0.471786649605624</v>
       </c>
       <c r="P6">
-        <v>0.0002130851168565751</v>
+        <v>0.471786649605624</v>
       </c>
       <c r="Q6">
-        <v>1.342264160780334</v>
+        <v>3.093908207228889</v>
       </c>
       <c r="R6">
-        <v>12.080377447023</v>
+        <v>27.84517386506</v>
       </c>
       <c r="S6">
-        <v>4.374389351750634E-05</v>
+        <v>0.2563817157929553</v>
       </c>
       <c r="T6">
-        <v>4.374389351750634E-05</v>
+        <v>0.2563817157929553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.69090766666667</v>
+        <v>37.91244433333333</v>
       </c>
       <c r="H7">
-        <v>44.072723</v>
+        <v>113.737333</v>
       </c>
       <c r="I7">
-        <v>0.2052883568914379</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="J7">
-        <v>0.2052883568914379</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,214 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.07620366666666667</v>
+        <v>0.09136699999999999</v>
       </c>
       <c r="N7">
-        <v>0.228611</v>
+        <v>0.274101</v>
       </c>
       <c r="O7">
-        <v>0.0001777213569074848</v>
+        <v>0.528213350394376</v>
       </c>
       <c r="P7">
-        <v>0.0001777213569074848</v>
+        <v>0.528213350394376</v>
       </c>
       <c r="Q7">
-        <v>1.119501030861445</v>
+        <v>3.463946301403666</v>
       </c>
       <c r="R7">
-        <v>10.075509277753</v>
+        <v>31.175516712633</v>
       </c>
       <c r="S7">
-        <v>3.648412534405434E-05</v>
+        <v>0.2870455219367897</v>
       </c>
       <c r="T7">
-        <v>3.648412534405434E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>23.805466</v>
-      </c>
-      <c r="H8">
-        <v>71.416398</v>
-      </c>
-      <c r="I8">
-        <v>0.3326537141924489</v>
-      </c>
-      <c r="J8">
-        <v>0.3326537141924489</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>428.6141356666667</v>
-      </c>
-      <c r="N8">
-        <v>1285.842407</v>
-      </c>
-      <c r="O8">
-        <v>0.9996091935262359</v>
-      </c>
-      <c r="P8">
-        <v>0.999609193526236</v>
-      </c>
-      <c r="Q8">
-        <v>10203.35923373222</v>
-      </c>
-      <c r="R8">
-        <v>91830.23310359</v>
-      </c>
-      <c r="S8">
-        <v>0.3325237109674208</v>
-      </c>
-      <c r="T8">
-        <v>0.3325237109674208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>23.805466</v>
-      </c>
-      <c r="H9">
-        <v>71.416398</v>
-      </c>
-      <c r="I9">
-        <v>0.3326537141924489</v>
-      </c>
-      <c r="J9">
-        <v>0.3326537141924489</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.09136700000000002</v>
-      </c>
-      <c r="N9">
-        <v>0.274101</v>
-      </c>
-      <c r="O9">
-        <v>0.0002130851168565751</v>
-      </c>
-      <c r="P9">
-        <v>0.0002130851168565751</v>
-      </c>
-      <c r="Q9">
-        <v>2.175034012022</v>
-      </c>
-      <c r="R9">
-        <v>19.575306108198</v>
-      </c>
-      <c r="S9">
-        <v>7.088355556147171E-05</v>
-      </c>
-      <c r="T9">
-        <v>7.088355556147171E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>23.805466</v>
-      </c>
-      <c r="H10">
-        <v>71.416398</v>
-      </c>
-      <c r="I10">
-        <v>0.3326537141924489</v>
-      </c>
-      <c r="J10">
-        <v>0.3326537141924489</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.07620366666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.228611</v>
-      </c>
-      <c r="O10">
-        <v>0.0001777213569074848</v>
-      </c>
-      <c r="P10">
-        <v>0.0001777213569074848</v>
-      </c>
-      <c r="Q10">
-        <v>1.814063795908667</v>
-      </c>
-      <c r="R10">
-        <v>16.326574163178</v>
-      </c>
-      <c r="S10">
-        <v>5.911966946659664E-05</v>
-      </c>
-      <c r="T10">
-        <v>5.911966946659664E-05</v>
+        <v>0.2870455219367897</v>
       </c>
     </row>
   </sheetData>
